--- a/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H2">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I2">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J2">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N2">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O2">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P2">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q2">
-        <v>1087.918489670978</v>
+        <v>1091.459794521936</v>
       </c>
       <c r="R2">
-        <v>1087.918489670978</v>
+        <v>4365.839178087745</v>
       </c>
       <c r="S2">
-        <v>0.04682424382015014</v>
+        <v>0.04472560816097042</v>
       </c>
       <c r="T2">
-        <v>0.04682424382015014</v>
+        <v>0.02673958699286953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H3">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I3">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J3">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N3">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P3">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q3">
-        <v>65.0063759243321</v>
+        <v>68.65437212115067</v>
       </c>
       <c r="R3">
-        <v>65.0063759243321</v>
+        <v>411.9262327269041</v>
       </c>
       <c r="S3">
-        <v>0.002797888283952073</v>
+        <v>0.002813304311747897</v>
       </c>
       <c r="T3">
-        <v>0.002797888283952073</v>
+        <v>0.002522937031196502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H4">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I4">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J4">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N4">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O4">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P4">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q4">
-        <v>202.0074161801294</v>
+        <v>204.2195806943367</v>
       </c>
       <c r="R4">
-        <v>202.0074161801294</v>
+        <v>1225.31748416602</v>
       </c>
       <c r="S4">
-        <v>0.00869444227531934</v>
+        <v>0.008368466700079635</v>
       </c>
       <c r="T4">
-        <v>0.00869444227531934</v>
+        <v>0.007504738980351608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H5">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I5">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J5">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N5">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O5">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P5">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q5">
-        <v>197.2013727931243</v>
+        <v>198.3061527080993</v>
       </c>
       <c r="R5">
-        <v>197.2013727931243</v>
+        <v>1189.836916248596</v>
       </c>
       <c r="S5">
-        <v>0.008487589142938618</v>
+        <v>0.008126147501215868</v>
       </c>
       <c r="T5">
-        <v>0.008487589142938618</v>
+        <v>0.007287430075079489</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H6">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I6">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J6">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N6">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O6">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P6">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q6">
-        <v>690.9900867808972</v>
+        <v>729.0576533065165</v>
       </c>
       <c r="R6">
-        <v>690.9900867808972</v>
+        <v>4374.345919839099</v>
       </c>
       <c r="S6">
-        <v>0.02974036070525895</v>
+        <v>0.02987517001744084</v>
       </c>
       <c r="T6">
-        <v>0.02974036070525895</v>
+        <v>0.02679168849084222</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.2252554071713</v>
+        <v>16.2726235</v>
       </c>
       <c r="H7">
-        <v>16.2252554071713</v>
+        <v>32.545247</v>
       </c>
       <c r="I7">
-        <v>0.1165713895651287</v>
+        <v>0.1150896855633734</v>
       </c>
       <c r="J7">
-        <v>0.1165713895651287</v>
+        <v>0.08350961674642161</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N7">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O7">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P7">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q7">
-        <v>465.3059038072815</v>
+        <v>516.8895116800188</v>
       </c>
       <c r="R7">
-        <v>465.3059038072815</v>
+        <v>2067.558046720075</v>
       </c>
       <c r="S7">
-        <v>0.02002686533750956</v>
+        <v>0.02118098887191876</v>
       </c>
       <c r="T7">
-        <v>0.02002686533750956</v>
+        <v>0.01266323517608227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H8">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I8">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J8">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N8">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O8">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P8">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q8">
-        <v>1494.76781057824</v>
+        <v>1605.16850994528</v>
       </c>
       <c r="R8">
-        <v>1494.76781057824</v>
+        <v>9631.011059671679</v>
       </c>
       <c r="S8">
-        <v>0.06433512536237448</v>
+        <v>0.06577625503794815</v>
       </c>
       <c r="T8">
-        <v>0.06433512536237448</v>
+        <v>0.05898734414037173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H9">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I9">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J9">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N9">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P9">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q9">
-        <v>89.31683681874649</v>
+        <v>100.9673803396533</v>
       </c>
       <c r="R9">
-        <v>89.31683681874649</v>
+        <v>908.7064230568801</v>
       </c>
       <c r="S9">
-        <v>0.003844215705636531</v>
+        <v>0.004137419914848036</v>
       </c>
       <c r="T9">
-        <v>0.003844215705636531</v>
+        <v>0.005565581657763115</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H10">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I10">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J10">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N10">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O10">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P10">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q10">
-        <v>277.5522119267043</v>
+        <v>300.3379892599333</v>
       </c>
       <c r="R10">
-        <v>277.5522119267043</v>
+        <v>2703.0419033394</v>
       </c>
       <c r="S10">
-        <v>0.01194590639599153</v>
+        <v>0.01230718647715021</v>
       </c>
       <c r="T10">
-        <v>0.01194590639599153</v>
+        <v>0.01655540233421371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H11">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I11">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J11">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N11">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O11">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P11">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q11">
-        <v>270.948850535806</v>
+        <v>291.6413350753466</v>
       </c>
       <c r="R11">
-        <v>270.948850535806</v>
+        <v>2624.77201567812</v>
       </c>
       <c r="S11">
-        <v>0.01166169631340207</v>
+        <v>0.0119508168249436</v>
       </c>
       <c r="T11">
-        <v>0.01166169631340207</v>
+        <v>0.01607602039075018</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H12">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I12">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J12">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N12">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O12">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P12">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q12">
-        <v>949.3999311116798</v>
+        <v>1072.197430355007</v>
       </c>
       <c r="R12">
-        <v>949.3999311116798</v>
+        <v>9649.776873195062</v>
       </c>
       <c r="S12">
-        <v>0.04086237551735301</v>
+        <v>0.04393627908416156</v>
       </c>
       <c r="T12">
-        <v>0.04086237551735301</v>
+        <v>0.05910227968488718</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.2930207835562</v>
+        <v>23.93153</v>
       </c>
       <c r="H13">
-        <v>22.2930207835562</v>
+        <v>71.79459</v>
       </c>
       <c r="I13">
-        <v>0.1601656396234505</v>
+        <v>0.169258034068719</v>
       </c>
       <c r="J13">
-        <v>0.1601656396234505</v>
+        <v>0.1842216375056694</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N13">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O13">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P13">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q13">
-        <v>639.3165422654856</v>
+        <v>760.1697940996249</v>
       </c>
       <c r="R13">
-        <v>639.3165422654856</v>
+        <v>4561.01876459775</v>
       </c>
       <c r="S13">
-        <v>0.0275163203286929</v>
+        <v>0.03115007672966747</v>
       </c>
       <c r="T13">
-        <v>0.0275163203286929</v>
+        <v>0.02793500929768346</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H14">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I14">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J14">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N14">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O14">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P14">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q14">
-        <v>2349.602398689153</v>
+        <v>2353.001953052096</v>
       </c>
       <c r="R14">
-        <v>2349.602398689153</v>
+        <v>14118.01171831258</v>
       </c>
       <c r="S14">
-        <v>0.101127388348647</v>
+        <v>0.09642081539091553</v>
       </c>
       <c r="T14">
-        <v>0.101127388348647</v>
+        <v>0.08646901251033288</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H15">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I15">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J15">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N15">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P15">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q15">
-        <v>140.395754141556</v>
+        <v>148.0071666381351</v>
       </c>
       <c r="R15">
-        <v>140.395754141556</v>
+        <v>1332.064499743216</v>
       </c>
       <c r="S15">
-        <v>0.006042663201014478</v>
+        <v>0.006065006309254064</v>
       </c>
       <c r="T15">
-        <v>0.006042663201014478</v>
+        <v>0.008158535648717635</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H16">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I16">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J16">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N16">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O16">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P16">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q16">
-        <v>436.2800284361155</v>
+        <v>440.2627331185645</v>
       </c>
       <c r="R16">
-        <v>436.2800284361155</v>
+        <v>3962.36459806708</v>
       </c>
       <c r="S16">
-        <v>0.01877758547107048</v>
+        <v>0.01804099297854903</v>
       </c>
       <c r="T16">
-        <v>0.01877758547107048</v>
+        <v>0.02426841405410829</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H17">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I17">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J17">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N17">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O17">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P17">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q17">
-        <v>425.9003068140236</v>
+        <v>427.514386664865</v>
       </c>
       <c r="R17">
-        <v>425.9003068140236</v>
+        <v>3847.629479983784</v>
       </c>
       <c r="S17">
-        <v>0.01833084003873106</v>
+        <v>0.01751859393916141</v>
       </c>
       <c r="T17">
-        <v>0.01833084003873106</v>
+        <v>0.02356569241320964</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H18">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I18">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J18">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N18">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O18">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P18">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q18">
-        <v>1492.347065322731</v>
+        <v>1571.724483785677</v>
       </c>
       <c r="R18">
-        <v>1492.347065322731</v>
+        <v>14145.5203540711</v>
       </c>
       <c r="S18">
-        <v>0.0642309359702954</v>
+        <v>0.06440579282133962</v>
       </c>
       <c r="T18">
-        <v>0.0642309359702954</v>
+        <v>0.08663749548208591</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.0420545160175</v>
+        <v>35.08101266666667</v>
       </c>
       <c r="H19">
-        <v>35.0420545160175</v>
+        <v>105.243038</v>
       </c>
       <c r="I19">
-        <v>0.2517618913008724</v>
+        <v>0.2481138162541146</v>
       </c>
       <c r="J19">
-        <v>0.2517618913008724</v>
+        <v>0.2700488267490822</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N19">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O19">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P19">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q19">
-        <v>1004.9317831159</v>
+        <v>1114.326003211092</v>
       </c>
       <c r="R19">
-        <v>1004.9317831159</v>
+        <v>6685.956019266551</v>
       </c>
       <c r="S19">
-        <v>0.04325247827111399</v>
+        <v>0.04566261481489496</v>
       </c>
       <c r="T19">
-        <v>0.04325247827111399</v>
+        <v>0.04094967664062785</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H20">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I20">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J20">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N20">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O20">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P20">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q20">
-        <v>2521.819461474397</v>
+        <v>2534.583287210592</v>
       </c>
       <c r="R20">
-        <v>2521.819461474397</v>
+        <v>15207.49972326355</v>
       </c>
       <c r="S20">
-        <v>0.1085396474603431</v>
+        <v>0.1038616168218801</v>
       </c>
       <c r="T20">
-        <v>0.1085396474603431</v>
+        <v>0.09314183257944834</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H21">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I21">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J21">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N21">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O21">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P21">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q21">
-        <v>150.6862375098344</v>
+        <v>159.4288905973147</v>
       </c>
       <c r="R21">
-        <v>150.6862375098344</v>
+        <v>1434.860015375832</v>
       </c>
       <c r="S21">
-        <v>0.006485567799877575</v>
+        <v>0.006533043293195175</v>
       </c>
       <c r="T21">
-        <v>0.006485567799877575</v>
+        <v>0.008788130446100701</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H22">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I22">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J22">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N22">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O22">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P22">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q22">
-        <v>468.2577218071506</v>
+        <v>474.2378406854067</v>
       </c>
       <c r="R22">
-        <v>468.2577218071506</v>
+        <v>4268.14056616866</v>
       </c>
       <c r="S22">
-        <v>0.02015391221376992</v>
+        <v>0.01943321773651822</v>
       </c>
       <c r="T22">
-        <v>0.02015391221376992</v>
+        <v>0.02614120935550607</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H23">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I23">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J23">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N23">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O23">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P23">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q23">
-        <v>457.1172054347288</v>
+        <v>460.5057033961853</v>
       </c>
       <c r="R23">
-        <v>457.1172054347288</v>
+        <v>4144.551330565668</v>
       </c>
       <c r="S23">
-        <v>0.01967442201311857</v>
+        <v>0.01887050512475465</v>
       </c>
       <c r="T23">
-        <v>0.01967442201311857</v>
+        <v>0.02538425863378115</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H24">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I24">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J24">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N24">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O24">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P24">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q24">
-        <v>1601.730520323221</v>
+        <v>1693.01457805236</v>
       </c>
       <c r="R24">
-        <v>1601.730520323221</v>
+        <v>15237.13120247124</v>
       </c>
       <c r="S24">
-        <v>0.0689388232021618</v>
+        <v>0.06937599260075969</v>
       </c>
       <c r="T24">
-        <v>0.0689388232021618</v>
+        <v>0.09332331739455056</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.6105059723472</v>
+        <v>37.788217</v>
       </c>
       <c r="H25">
-        <v>37.6105059723472</v>
+        <v>113.364651</v>
       </c>
       <c r="I25">
-        <v>0.2702150957516694</v>
+        <v>0.2672607777430924</v>
       </c>
       <c r="J25">
-        <v>0.2702150957516694</v>
+        <v>0.290888514614802</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N25">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O25">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P25">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q25">
-        <v>1078.589522010069</v>
+        <v>1200.318623016663</v>
       </c>
       <c r="R25">
-        <v>1078.589522010069</v>
+        <v>7201.911738099976</v>
       </c>
       <c r="S25">
-        <v>0.04642272306239847</v>
+        <v>0.04918640216598457</v>
       </c>
       <c r="T25">
-        <v>0.04642272306239847</v>
+        <v>0.04410976620541521</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H26">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I26">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J26">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N26">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O26">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P26">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q26">
-        <v>670.3739937168471</v>
+        <v>679.867789985888</v>
       </c>
       <c r="R26">
-        <v>670.3739937168471</v>
+        <v>4079.206739915328</v>
       </c>
       <c r="S26">
-        <v>0.02885303966290593</v>
+        <v>0.02785947822245928</v>
       </c>
       <c r="T26">
-        <v>0.02885303966290593</v>
+        <v>0.02498404064705871</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H27">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I27">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J27">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N27">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O27">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P27">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q27">
-        <v>40.05684640825692</v>
+        <v>42.76465013291644</v>
       </c>
       <c r="R27">
-        <v>40.05684640825692</v>
+        <v>384.881851196248</v>
       </c>
       <c r="S27">
-        <v>0.001724055212494622</v>
+        <v>0.001752400770587773</v>
       </c>
       <c r="T27">
-        <v>0.001724055212494622</v>
+        <v>0.002357297491325939</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H28">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I28">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J28">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N28">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O28">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P28">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q28">
-        <v>124.4767136792115</v>
+        <v>127.2079060496378</v>
       </c>
       <c r="R28">
-        <v>124.4767136792115</v>
+        <v>1144.87115444674</v>
       </c>
       <c r="S28">
-        <v>0.005357504304397982</v>
+        <v>0.005212698616576748</v>
       </c>
       <c r="T28">
-        <v>0.005357504304397982</v>
+        <v>0.007012026916521546</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H29">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I29">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J29">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N29">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O29">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P29">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q29">
-        <v>121.5152358388106</v>
+        <v>123.5244453885835</v>
       </c>
       <c r="R29">
-        <v>121.5152358388106</v>
+        <v>1111.720008497252</v>
       </c>
       <c r="S29">
-        <v>0.005230041666540946</v>
+        <v>0.005061758546196218</v>
       </c>
       <c r="T29">
-        <v>0.005230041666540946</v>
+        <v>0.006808985092287902</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H30">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I30">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J30">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N30">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O30">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P30">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q30">
-        <v>425.7872152114576</v>
+        <v>454.1283316284697</v>
       </c>
       <c r="R30">
-        <v>425.7872152114576</v>
+        <v>4087.154984656227</v>
       </c>
       <c r="S30">
-        <v>0.01832597255203713</v>
+        <v>0.01860917453593107</v>
       </c>
       <c r="T30">
-        <v>0.01832597255203713</v>
+        <v>0.02503272150153374</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.997981806220469</v>
+        <v>10.13617966666667</v>
       </c>
       <c r="H31">
-        <v>9.997981806220469</v>
+        <v>30.408539</v>
       </c>
       <c r="I31">
-        <v>0.07183114242274871</v>
+        <v>0.07168909983387287</v>
       </c>
       <c r="J31">
-        <v>0.07183114242274871</v>
+        <v>0.07802692164876225</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N31">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O31">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P31">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q31">
-        <v>286.7209078592384</v>
+        <v>321.9692852971292</v>
       </c>
       <c r="R31">
-        <v>286.7209078592384</v>
+        <v>1931.815711782775</v>
       </c>
       <c r="S31">
-        <v>0.01234052902437211</v>
+        <v>0.01319358914212179</v>
       </c>
       <c r="T31">
-        <v>0.01234052902437211</v>
+        <v>0.0118318500000344</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H32">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I32">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J32">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N32">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O32">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P32">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q32">
-        <v>1208.155071260547</v>
+        <v>1219.477414959744</v>
       </c>
       <c r="R32">
-        <v>1208.155071260547</v>
+        <v>4877.909659838976</v>
       </c>
       <c r="S32">
-        <v>0.05199925193510004</v>
+        <v>0.04997148708215331</v>
       </c>
       <c r="T32">
-        <v>0.05199925193510004</v>
+        <v>0.02987588052882727</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H33">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I33">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J33">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N33">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O33">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P33">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q33">
-        <v>72.19087044012252</v>
+        <v>76.70686236926933</v>
       </c>
       <c r="R33">
-        <v>72.19087044012252</v>
+        <v>460.241174215616</v>
       </c>
       <c r="S33">
-        <v>0.003107110460177465</v>
+        <v>0.003143277550675254</v>
       </c>
       <c r="T33">
-        <v>0.003107110460177465</v>
+        <v>0.002818853011674436</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H34">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I34">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J34">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N34">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O34">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P34">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q34">
-        <v>224.333244270969</v>
+        <v>228.1725516590133</v>
       </c>
       <c r="R34">
-        <v>224.333244270969</v>
+        <v>1369.03530995408</v>
       </c>
       <c r="S34">
-        <v>0.009655350677867394</v>
+        <v>0.009350006468226996</v>
       </c>
       <c r="T34">
-        <v>0.009655350677867394</v>
+        <v>0.008384971885945974</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H35">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I35">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J35">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N35">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O35">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P35">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q35">
-        <v>218.9960377193417</v>
+        <v>221.5655360727307</v>
       </c>
       <c r="R35">
-        <v>218.9960377193417</v>
+        <v>1329.393216436384</v>
       </c>
       <c r="S35">
-        <v>0.009425636169598047</v>
+        <v>0.009079265583671616</v>
       </c>
       <c r="T35">
-        <v>0.009425636169598047</v>
+        <v>0.00814217475921805</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H36">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I36">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J36">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N36">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O36">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P36">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q36">
-        <v>767.3582032672172</v>
+        <v>814.5690266128988</v>
       </c>
       <c r="R36">
-        <v>767.3582032672172</v>
+        <v>4887.414159677392</v>
       </c>
       <c r="S36">
-        <v>0.03302726072616267</v>
+        <v>0.03337923695147104</v>
       </c>
       <c r="T36">
-        <v>0.03302726072616267</v>
+        <v>0.0299340930258722</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>18.0184681010432</v>
+        <v>18.181244</v>
       </c>
       <c r="H37">
-        <v>18.0184681010432</v>
+        <v>36.362488</v>
       </c>
       <c r="I37">
-        <v>0.1294548413361303</v>
+        <v>0.1285885865368279</v>
       </c>
       <c r="J37">
-        <v>0.1294548413361303</v>
+        <v>0.09330448273526253</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N37">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O37">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P37">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q37">
-        <v>516.7314396340992</v>
+        <v>577.51562511695</v>
       </c>
       <c r="R37">
-        <v>516.7314396340992</v>
+        <v>2310.0625004678</v>
       </c>
       <c r="S37">
-        <v>0.02224023136722474</v>
+        <v>0.02366531290062968</v>
       </c>
       <c r="T37">
-        <v>0.02224023136722474</v>
+        <v>0.0141485095237246</v>
       </c>
     </row>
   </sheetData>
